--- a/indextrends/amt/overall index.xlsx
+++ b/indextrends/amt/overall index.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShaownS/Documents/PrivacySearchQueries/indextrends/amt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaowns/Documents/PrivacySearchQueries/indextrends/amt/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Social Media Sett. and Priv." sheetId="7" r:id="rId8"/>
     <sheet name="Web Anonymity" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -338,8 +338,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -356,18 +356,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>overall!$A$2:$A$74</c:f>
               <c:numCache>
@@ -594,8 +618,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>overall!$K$2:$K$74</c:f>
               <c:numCache>
@@ -822,7 +846,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -833,12 +857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-463211808"/>
-        <c:axId val="-466942992"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-463211808"/>
+        <c:axId val="-1450112368"/>
+        <c:axId val="-1476772672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1450112368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,14 +918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-466942992"/>
+        <c:crossAx val="-1476772672"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-466942992"/>
+        <c:axId val="-1476772672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,15 +974,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463211808"/>
+        <c:crossAx val="-1450112368"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -977,7 +998,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1049,8 +1070,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1067,18 +1088,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Web Anonymity'!$A$2:$A$79</c:f>
               <c:numCache>
@@ -1305,8 +1350,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Web Anonymity'!$I$2:$I$79</c:f>
               <c:numCache>
@@ -1533,7 +1578,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1544,12 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-360370864"/>
-        <c:axId val="-359989264"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-360370864"/>
+        <c:axId val="-1477088560"/>
+        <c:axId val="-1365379776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1477088560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,14 +1650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-359989264"/>
+        <c:crossAx val="-1365379776"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-359989264"/>
+        <c:axId val="-1365379776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,15 +1705,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360370864"/>
+        <c:crossAx val="-1477088560"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -1687,7 +1729,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1759,8 +1801,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1777,18 +1819,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="3175" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>overall!$A$2:$A$74</c:f>
               <c:numCache>
@@ -2015,8 +2081,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>overall!$M$2:$M$74</c:f>
               <c:numCache>
@@ -2243,7 +2309,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2254,12 +2320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-578199696"/>
-        <c:axId val="-439175568"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-578199696"/>
+        <c:axId val="-1479112304"/>
+        <c:axId val="-1478877696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1479112304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,14 +2381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-439175568"/>
+        <c:crossAx val="-1478877696"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-439175568"/>
+        <c:axId val="-1478877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,15 +2436,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-578199696"/>
+        <c:crossAx val="-1479112304"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -2397,7 +2460,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2436,7 +2499,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2469,8 +2531,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2487,18 +2549,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Apps and Privacy'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -2725,8 +2811,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Apps and Privacy'!$F$2:$F$74</c:f>
               <c:numCache>
@@ -2953,7 +3039,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2964,12 +3050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-438635872"/>
-        <c:axId val="-438634096"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-438635872"/>
+        <c:axId val="-1476581504"/>
+        <c:axId val="-1484085248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1476581504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,14 +3111,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-438634096"/>
+        <c:crossAx val="-1484085248"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-438634096"/>
+        <c:axId val="-1484085248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,15 +3166,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-438635872"/>
+        <c:crossAx val="-1476581504"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -3107,7 +3190,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3146,7 +3229,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3179,8 +3261,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3197,18 +3279,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Communications Privacy'!$A$2:$A$79</c:f>
               <c:numCache>
@@ -3435,8 +3541,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Communications Privacy'!$I$2:$I$79</c:f>
               <c:numCache>
@@ -3663,7 +3769,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3674,12 +3780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-464305120"/>
-        <c:axId val="-462678192"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-464305120"/>
+        <c:axId val="-1479564352"/>
+        <c:axId val="-1479562032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1479564352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,14 +3841,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-462678192"/>
+        <c:crossAx val="-1479562032"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-462678192"/>
+        <c:axId val="-1479562032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3793,15 +3896,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-464305120"/>
+        <c:crossAx val="-1479564352"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -3817,7 +3920,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3856,7 +3959,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,8 +3991,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3907,18 +4009,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Deleting Apps'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -4145,8 +4271,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Deleting Apps'!$I$2:$I$74</c:f>
               <c:numCache>
@@ -4373,7 +4499,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4384,12 +4510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-424244256"/>
-        <c:axId val="-426451200"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-424244256"/>
+        <c:axId val="-1449643072"/>
+        <c:axId val="-1478804128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1449643072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,14 +4571,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-426451200"/>
+        <c:crossAx val="-1478804128"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-426451200"/>
+        <c:axId val="-1478804128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,6 +4596,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4503,15 +4627,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-424244256"/>
+        <c:crossAx val="-1449643072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -4527,7 +4651,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4566,7 +4690,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4599,8 +4722,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4617,18 +4740,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Deleting Social Media Accounts'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -4855,8 +5002,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Deleting Social Media Accounts'!$C$2:$C$74</c:f>
               <c:numCache>
@@ -5083,7 +5230,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -5094,12 +5241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-422538944"/>
-        <c:axId val="-421326368"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-422538944"/>
+        <c:axId val="-1365237456"/>
+        <c:axId val="-1365235136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1365237456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5156,14 +5302,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-421326368"/>
+        <c:crossAx val="-1365235136"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-421326368"/>
+        <c:axId val="-1365235136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,6 +5327,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5213,15 +5358,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422538944"/>
+        <c:crossAx val="-1365237456"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -5237,8 +5382,9 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5276,7 +5422,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5309,8 +5454,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5327,18 +5472,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Removing Social Media Conn.'!$A$2:$A$79</c:f>
               <c:numCache>
@@ -5565,8 +5734,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Removing Social Media Conn.'!$I$2:$I$79</c:f>
               <c:numCache>
@@ -5793,7 +5962,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -5804,12 +5973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-441615440"/>
-        <c:axId val="-441613664"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-441615440"/>
+        <c:axId val="-1543555968"/>
+        <c:axId val="-1450066256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1543555968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5866,14 +6034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-441613664"/>
+        <c:crossAx val="-1450066256"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-441613664"/>
+        <c:axId val="-1450066256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,6 +6059,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5923,15 +6090,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-441615440"/>
+        <c:crossAx val="-1543555968"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -5947,7 +6114,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5986,7 +6153,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6019,8 +6185,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6037,18 +6203,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Search Anonymity'!$A$2:$A$79</c:f>
               <c:numCache>
@@ -6275,8 +6465,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Search Anonymity'!$F$2:$F$79</c:f>
               <c:numCache>
@@ -6503,7 +6693,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -6514,12 +6704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-392084176"/>
-        <c:axId val="-392021840"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-392084176"/>
+        <c:axId val="-1365508048"/>
+        <c:axId val="-1365505728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1365508048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,14 +6765,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392021840"/>
+        <c:crossAx val="-1365505728"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-392021840"/>
+        <c:axId val="-1365505728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,15 +6820,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392084176"/>
+        <c:crossAx val="-1365508048"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -6657,7 +6844,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6696,7 +6883,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6729,8 +6915,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6747,18 +6933,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'Social Media Sett. and Priv.'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -6985,8 +7195,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Social Media Sett. and Priv.'!$I$2:$I$74</c:f>
               <c:numCache>
@@ -7213,7 +7423,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -7224,12 +7434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-360363536"/>
-        <c:axId val="-394045536"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-360363536"/>
+        <c:axId val="-1365397408"/>
+        <c:axId val="-1365805952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1365397408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7286,14 +7495,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-394045536"/>
+        <c:crossAx val="-1365805952"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-394045536"/>
+        <c:axId val="-1365805952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7343,15 +7550,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360363536"/>
+        <c:crossAx val="-1365397408"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -7367,7 +7574,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -12956,14 +13163,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>508000</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12986,15 +13193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13021,15 +13228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13056,15 +13263,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13092,14 +13299,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13127,14 +13334,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13161,15 +13368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>469900</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13197,14 +13404,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>393700</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13232,14 +13439,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13267,13 +13474,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13561,8 +13768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCellId="1" sqref="M1:M1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16909,7 +17116,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18554,7 +18761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20958,7 +21167,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23271,7 +23480,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24178,7 +24387,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCellId="1" sqref="I1:I1048576 A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26580,7 +26789,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="F1:F1048576 A1:A1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28243,7 +28452,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCellId="1" sqref="I1:I1048576 A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30629,7 +30838,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
